--- a/Dictionaries/CADULT1.xlsx
+++ b/Dictionaries/CADULT1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2523d341f1af05b7/Documents/SAN JOSE STATE/Master/CMPE 255/CMPE255 Group Project-20241025T055613Z-001/CMPE255 Group Project/Dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{DBF1EF3A-B2C5-4915-AAF8-327B4D12F7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{449D66CB-5B95-4C9E-A44D-D8C8190AB8B0}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{DBF1EF3A-B2C5-4915-AAF8-327B4D12F7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{793E08E2-D975-4044-9440-6F1C61C3CC12}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{9A6B6362-2519-41B7-8939-9834CEAAAA38}"/>
+    <workbookView xWindow="7545" yWindow="750" windowWidth="21600" windowHeight="11295" xr2:uid="{9A6B6362-2519-41B7-8939-9834CEAAAA38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Value</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>.</t>
-  </si>
-  <si>
-    <t>CADULT1</t>
   </si>
 </sst>
 </file>
@@ -362,6 +359,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -681,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465FD253-C79C-42CC-A8CB-FBB4F1FF7CD7}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,77 +695,72 @@
     <col min="4" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>10</v>
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>4</v>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>344978</v>
+      </c>
+      <c r="D2" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2" s="9">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3">
-        <v>344978</v>
-      </c>
-      <c r="D3" s="1">
-        <v>100</v>
-      </c>
-      <c r="E3" s="9">
-        <v>100</v>
+      <c r="A3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="13">
+        <v>88345</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="13">
-        <v>88345</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10" t="s">
+    <row r="4" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="18"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
